--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888F209-1F4E-CE4B-9B35-AF6C1A49D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8F76B-38C1-854F-872B-3BFC48C5D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>key</t>
   </si>
@@ -185,43 +188,19 @@
     <t>9cfd7fa2-eef2-4099-8791-4aa5ef276ef2</t>
   </si>
   <si>
-    <t>读取所有规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读取规则配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>perm.view.rule.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.view.rule-item.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.view.rule.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>act.view.rule-item.fetch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res.view.rule.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res.view.rule-item.fetch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/rule-items/rule/:ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rules</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +363,42 @@
   </si>
   <si>
     <t>cd0cc2ce-b9c5-40c2-8aa0-f70339164210</t>
+  </si>
+  <si>
+    <t>权限管理区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.authority.region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.authority.region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取权限区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.authority.region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.authority.rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/authority/region/:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,28 +665,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,6 +681,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,17 +1041,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="55.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
@@ -1048,218 +1063,180 @@
     <col min="13" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="27" customFormat="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" s="21" customFormat="1">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="27" customFormat="1">
-      <c r="A3" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="28" t="s">
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="27" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="D7" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="27" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="27" customFormat="1">
-      <c r="A6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="27" customFormat="1">
-      <c r="A7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="27" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="27" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>41</v>
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>41</v>
@@ -1269,16 +1246,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>41</v>
@@ -1288,16 +1265,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>41</v>
@@ -1305,162 +1282,142 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="7" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="16" t="str">
-        <f>A35</f>
-        <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
-      </c>
-      <c r="C25" s="16" t="str">
-        <f>A14</f>
-        <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="16" t="str">
-        <f>A36</f>
-        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
-      </c>
-      <c r="C26" s="16" t="str">
-        <f>A15</f>
-        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B27" s="16" t="str">
         <f>A37</f>
-        <v>b78e8006-36e5-43a3-8b65-bf762cb4aad5</v>
+        <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>A16</f>
-        <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
+        <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -1469,56 +1426,56 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B28" s="16" t="str">
         <f>A38</f>
-        <v>d30554df-ca06-4633-8479-9c73ca3df802</v>
+        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
       </c>
       <c r="C28" s="16" t="str">
         <f>A17</f>
-        <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
+        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H28" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B29" s="16" t="str">
         <f>A39</f>
-        <v>ff6ec1ab-0fd5-413c-a671-a9484b108b75</v>
+        <v>b78e8006-36e5-43a3-8b65-bf762cb4aad5</v>
       </c>
       <c r="C29" s="16" t="str">
         <f>A18</f>
-        <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
+        <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -1526,160 +1483,168 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="4"/>
-      <c r="K30" s="14"/>
+      <c r="A30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="16" t="str">
+        <f>A40</f>
+        <v>d30554df-ca06-4633-8479-9c73ca3df802</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f>A19</f>
+        <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="12">
+        <v>8</v>
+      </c>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="4"/>
-      <c r="K31" s="14"/>
+      <c r="A31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f>A41</f>
+        <v>ff6ec1ab-0fd5-413c-a671-a9484b108b75</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f>A20</f>
+        <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="4"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="4"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C34" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="5" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I35" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="7" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>41</v>
@@ -1695,16 +1660,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>41</v>
@@ -1713,23 +1678,23 @@
         <v>32</v>
       </c>
       <c r="G38" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>41</v>
@@ -1744,26 +1709,76 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
-      <c r="K40" s="14"/>
+      <c r="A40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="12">
+        <v>8</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="14"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="K41" s="14"/>
+      <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="4"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="14"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="K43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C34:I34"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8F76B-38C1-854F-872B-3BFC48C5D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB299A6-24D0-5F46-AE81-787365586CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -192,18 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act.view.rule-item.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.view.rule-item.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule-items/rule/:ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读取视图集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +386,18 @@
   </si>
   <si>
     <t>/api/authority/region/:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.authority.region-v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/authority/region-v/:owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.authority.region-v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1068,23 +1068,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1">
       <c r="A3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1">
@@ -1092,83 +1092,83 @@
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="21" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1230,13 +1230,13 @@
         <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>41</v>
@@ -1249,13 +1249,13 @@
         <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>41</v>
@@ -1265,16 +1265,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>41</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>41</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>41</v>
@@ -1408,16 +1408,16 @@
         <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -1437,13 +1437,13 @@
         <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>48</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="16" t="str">
         <f>A39</f>
@@ -1466,16 +1466,16 @@
         <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="16" t="str">
         <f>A40</f>
@@ -1495,16 +1495,16 @@
         <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H30" s="12">
         <v>8</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" s="16" t="str">
         <f>A41</f>
@@ -1524,16 +1524,16 @@
         <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -1627,10 +1627,10 @@
         <v>17</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1638,13 +1638,13 @@
         <v>44</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>41</v>
@@ -1669,7 +1669,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>41</v>
@@ -1685,16 +1685,16 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>41</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>41</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>41</v>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-10457-HWVZiQDQt0U6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB299A6-24D0-5F46-AE81-787365586CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC2951-F89B-AC41-A085-346C4ABC5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>key</t>
   </si>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>UNION</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属模型</t>
@@ -1043,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1068,23 +1064,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1">
       <c r="A3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1">
@@ -1092,83 +1088,83 @@
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="21" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1201,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1220,102 +1216,102 @@
         <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1325,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -1342,25 +1338,25 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>13</v>
@@ -1371,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>16</v>
@@ -1397,7 +1393,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="16" t="str">
         <f>A37</f>
@@ -1408,16 +1404,16 @@
         <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -1426,7 +1422,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="16" t="str">
         <f>A38</f>
@@ -1437,16 +1433,16 @@
         <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="G28" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -1455,7 +1451,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="16" t="str">
         <f>A39</f>
@@ -1466,16 +1462,16 @@
         <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="G29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -1484,7 +1480,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="16" t="str">
         <f>A40</f>
@@ -1495,16 +1491,16 @@
         <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="12">
         <v>8</v>
@@ -1513,7 +1509,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="16" t="str">
         <f>A41</f>
@@ -1524,16 +1520,16 @@
         <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -1563,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -1589,10 +1585,10 @@
         <v>8</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>22</v>
@@ -1618,39 +1614,39 @@
         <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="12">
         <v>1</v>
@@ -1660,22 +1656,22 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="12">
         <v>1</v>
@@ -1685,22 +1681,22 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
@@ -1710,22 +1706,22 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="12">
         <v>8</v>
@@ -1735,22 +1731,22 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="12">
         <v>1</v>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-10457-HWVZiQDQt0U6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC2951-F89B-AC41-A085-346C4ABC5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9297C25-1A34-5B40-B99D-CA092F2ECFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>key</t>
   </si>
@@ -394,6 +394,55 @@
   </si>
   <si>
     <t>res.authority.region-v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.authority.saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18823149-c009-425b-ad57-b5ed16b9f35b</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdec2042-39b8-4791-9926-774331a4c747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931da010-34ba-4ede-8dbe-cb82331e61a4</t>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.authority.region-save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission.secuirty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86815747-715f-448d-a28f-178fecd71f6a</t>
+  </si>
+  <si>
+    <t>act.authority.region-save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/authority/region/:path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K43"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1127,24 +1176,24 @@
     </row>
     <row r="7" spans="1:9" s="21" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>85</v>
@@ -1155,10 +1204,10 @@
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>85</v>
@@ -1167,91 +1216,86 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+    <row r="10" spans="1:9" s="21" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>40</v>
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>40</v>
@@ -1259,18 +1303,18 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>40</v>
@@ -1278,18 +1322,18 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>40</v>
@@ -1297,18 +1341,18 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>40</v>
@@ -1316,406 +1360,398 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="16" t="str">
-        <f>A37</f>
+      <c r="B29" s="16" t="str">
+        <f>A40</f>
         <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
       </c>
-      <c r="C27" s="16" t="str">
-        <f>A16</f>
+      <c r="C29" s="16" t="str">
+        <f>A17</f>
         <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="16" t="str">
-        <f>A38</f>
-        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
-      </c>
-      <c r="C28" s="16" t="str">
-        <f>A17</f>
-        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="12">
-        <v>1</v>
-      </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="16" t="str">
-        <f>A39</f>
-        <v>b78e8006-36e5-43a3-8b65-bf762cb4aad5</v>
-      </c>
-      <c r="C29" s="16" t="str">
-        <f>A18</f>
-        <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B30" s="16" t="str">
-        <f>A40</f>
-        <v>d30554df-ca06-4633-8479-9c73ca3df802</v>
+        <f>A41</f>
+        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
       </c>
       <c r="C30" s="16" t="str">
+        <f>A18</f>
+        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f>A42</f>
+        <v>931da010-34ba-4ede-8dbe-cb82331e61a4</v>
+      </c>
+      <c r="C31" s="16" t="str">
         <f>A19</f>
-        <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="12">
-        <v>8</v>
-      </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="16" t="str">
-        <f>A41</f>
-        <v>ff6ec1ab-0fd5-413c-a671-a9484b108b75</v>
-      </c>
-      <c r="C31" s="16" t="str">
-        <f>A20</f>
-        <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
+        <v>bdec2042-39b8-4791-9926-774331a4c747</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="12">
+        <v>4</v>
+      </c>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f>A43</f>
+        <v>b78e8006-36e5-43a3-8b65-bf762cb4aad5</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f>A20</f>
+        <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="str">
+        <f>A44</f>
+        <v>d30554df-ca06-4633-8479-9c73ca3df802</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>A21</f>
+        <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="12">
+        <v>8</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f>A45</f>
+        <v>ff6ec1ab-0fd5-413c-a671-a9484b108b75</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>A22</f>
+        <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H34" s="12">
         <v>1</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="4"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="4"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="4"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="4"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="12">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="12">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>40</v>
@@ -1724,23 +1760,23 @@
         <v>31</v>
       </c>
       <c r="G40" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>40</v>
@@ -1755,26 +1791,126 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
-      <c r="K42" s="14"/>
+      <c r="A42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="12">
+        <v>4</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="K43" s="14"/>
+      <c r="A43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="12">
+        <v>8</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="4"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="14"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="K47" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C37:I37"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9297C25-1A34-5B40-B99D-CA092F2ECFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFA9A3-7D9F-D84B-84CF-0CAABAD1808C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-43840" yWindow="-12080" windowWidth="39920" windowHeight="27280" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>key</t>
   </si>
@@ -188,101 +188,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读取视图集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.view.owner.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</t>
-  </si>
-  <si>
-    <t>res.view.owner.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b78e8006-36e5-43a3-8b65-bf762cb4aad5</t>
-  </si>
-  <si>
-    <t>act.view.owner.fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/view/:ownerType/:ownerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5bd9e7b8-5e3e-4633-8b19-53e0adbbef98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd343688-f6b6-42d4-b209-9163c3e7cfcb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.view.owner.update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.view.owner.update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d30554df-ca06-4633-8479-9c73ca3df802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.view.owner.update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9c4ce5d6-eb16-4e12-b7ee-657f0ada2808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.visitant.by.resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.visitant.by.resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找资源访问者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff6ec1ab-0fd5-413c-a671-a9484b108b75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.visitant.by.resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c909dd94-3a60-4132-b1c9-191cde6df7ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/visitant/:ownerType/:ownerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,20 +239,7 @@
     <t>26cf0030-2f44-4abd-be26-99327bc43ffe</t>
   </si>
   <si>
-    <t>视图管理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>f95dada1-4c2e-4554-a9d3-80e3a9c8a2b9</t>
-  </si>
-  <si>
-    <t>7d79661d-056a-43b6-a193-342ccec3e060</t>
-  </si>
-  <si>
-    <t>99bd21e0-6cd7-49de-9244-b059db50fe72</t>
-  </si>
-  <si>
-    <t>cd0cc2ce-b9c5-40c2-8aa0-f70339164210</t>
   </si>
   <si>
     <t>权限管理区域</t>
@@ -1086,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1113,23 +1006,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1">
@@ -1137,780 +1030,519 @@
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="21" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="21" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="21" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1">
-      <c r="A10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>28</v>
+      <c r="A16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="12" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="16" t="str">
+        <f t="shared" ref="B23:B25" si="0">A31</f>
+        <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f>A14</f>
+        <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>A15</f>
+        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>931da010-34ba-4ede-8dbe-cb82331e61a4</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>A16</f>
+        <v>bdec2042-39b8-4791-9926-774331a4c747</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="12">
+        <v>4</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="4"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="4"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="F31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+      <c r="F32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="12">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="16" t="str">
-        <f>A40</f>
-        <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
-      </c>
-      <c r="C29" s="16" t="str">
-        <f>A17</f>
-        <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="16" t="str">
-        <f>A41</f>
-        <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
-      </c>
-      <c r="C30" s="16" t="str">
-        <f>A18</f>
-        <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="16" t="str">
-        <f>A42</f>
-        <v>931da010-34ba-4ede-8dbe-cb82331e61a4</v>
-      </c>
-      <c r="C31" s="16" t="str">
-        <f>A19</f>
-        <v>bdec2042-39b8-4791-9926-774331a4c747</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="12">
-        <v>4</v>
-      </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="16" t="str">
-        <f>A43</f>
-        <v>b78e8006-36e5-43a3-8b65-bf762cb4aad5</v>
-      </c>
-      <c r="C32" s="16" t="str">
-        <f>A20</f>
-        <v>cdffea2c-a43f-4f4a-8aab-658a7d968dfa</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1</v>
-      </c>
+      <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f>A44</f>
-        <v>d30554df-ca06-4633-8479-9c73ca3df802</v>
-      </c>
-      <c r="C33" s="16" t="str">
-        <f>A21</f>
-        <v>dd343688-f6b6-42d4-b209-9163c3e7cfcb</v>
+        <v>80</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="12">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="12">
+        <v>4</v>
+      </c>
+      <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="16" t="str">
-        <f>A45</f>
-        <v>ff6ec1ab-0fd5-413c-a671-a9484b108b75</v>
-      </c>
-      <c r="C34" s="16" t="str">
-        <f>A22</f>
-        <v>f87ae2d4-4694-4fa1-b8b2-6c361ba73509</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="12">
-        <v>1</v>
-      </c>
-      <c r="I34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="4"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="15"/>
       <c r="G35" s="4"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="4"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="12">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="12">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="12">
-        <v>4</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="12">
-        <v>1</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="12">
-        <v>8</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="4"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="14"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="K47" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFA9A3-7D9F-D84B-84CF-0CAABAD1808C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F918A-A9FC-4545-9060-2E3BCC44F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43840" yWindow="-12080" windowWidth="39920" windowHeight="27280" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-43060" yWindow="-18640" windowWidth="39920" windowHeight="27280" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -337,6 +337,36 @@
   <si>
     <t>/api/authority/region/:path</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取区域定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.authority.region-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec.path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2e711589-53ce-48b0-ae9d-25e4f1a6d029</t>
+  </si>
+  <si>
+    <t>act.authority.region-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/authority/region-m/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b9dc062e-d7dc-44f8-8f69-368a05ba32e6</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A8:XFD10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1272,7 +1302,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f t="shared" ref="B23:B25" si="0">A31</f>
+        <f t="shared" ref="B23:B24" si="0">A32</f>
         <v>1b29da02-d5ad-46a3-a54d-b0e7016d7326</v>
       </c>
       <c r="C23" s="16" t="str">
@@ -1298,70 +1328,90 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
+        <v>2e711589-53ce-48b0-ae9d-25e4f1a6d029</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>A14</f>
+        <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f>A34</f>
         <v>5fd9adb4-e72d-4edd-91ad-3c848d48fd63</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C25" s="16" t="str">
         <f>A15</f>
         <v>a038885b-b633-469d-b4d8-073c8dc57e9e</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10" t="s">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="16" t="str">
+        <f>A35</f>
         <v>931da010-34ba-4ede-8dbe-cb82331e61a4</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C26" s="16" t="str">
         <f>A16</f>
         <v>bdec2042-39b8-4791-9926-774331a4c747</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H26" s="12">
         <v>4</v>
       </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="4"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="14"/>
@@ -1373,120 +1423,104 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="4"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I30" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="12">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>31</v>
@@ -1499,50 +1533,100 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="4"/>
-      <c r="K34" s="14"/>
+      <c r="A34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="14"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="K35" s="14"/>
+      <c r="A35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="12">
+        <v>4</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="4"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="14"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="K37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/authority.view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F918A-A9FC-4545-9060-2E3BCC44F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929722D-1F8F-AF43-9504-3C4490F8441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-43060" yWindow="-18640" windowWidth="39920" windowHeight="27280" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res.authority.region-m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sec.path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,19 +350,23 @@
     <t>2e711589-53ce-48b0-ae9d-25e4f1a6d029</t>
   </si>
   <si>
-    <t>act.authority.region-m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/authority/region-m/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b9dc062e-d7dc-44f8-8f69-368a05ba32e6</t>
+  </si>
+  <si>
+    <t>act.authority.region-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/authority/region-d/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.authority.region-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1339,10 +1339,10 @@
         <v>2d7c4718-2e7b-4485-b16a-473ac1c2c6ae</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>93</v>
@@ -1520,7 +1520,7 @@
         <v>68</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>31</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>87</v>
@@ -1542,10 +1542,10 @@
         <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>83</v>
